--- a/biology/Zoologie/Botiidae/Botiidae.xlsx
+++ b/biology/Zoologie/Botiidae/Botiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botiidae est une famille de poissons appartenant à l’ordre des Cypriniformes. Les Botiidae se trouvent au Sud, au Sud-Est et à l’Est de l’Asie. Jusqu'à récemment, ils étaient placés dans la « vraie » famille de loche, les Cobitidae, jusqu'à ce que Maurice Kottelat révise les loches et ré-élève ce taxon au rang de famille en 2012[1]. La famille comprend environ 56 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botiidae est une famille de poissons appartenant à l’ordre des Cypriniformes. Les Botiidae se trouvent au Sud, au Sud-Est et à l’Est de l’Asie. Jusqu'à récemment, ils étaient placés dans la « vraie » famille de loche, les Cobitidae, jusqu'à ce que Maurice Kottelat révise les loches et ré-élève ce taxon au rang de famille en 2012. La famille comprend environ 56 espèces.
 Les Botiids sont plus robuste que la plupart de leurs parents Cobitidae et ont tendance à avoir un corps plus ou moins cambrés, ce qui donne une forme tout à fait plus fusiforme. Les Botiids ont généralement un museau pointu et de longueur intermédiaire, tandis que de nombreux cobitids ont un bous de nez plus rond.
-Les Botiids sont généralement assez petits, avec des longueurs maximales comprise entre 6 et 30 cm selon les espèces, bien que Leptobotia elongata atteigne 50 cm[2] (Chromobotia macracanthus atteint de manière assez exceptionnelle une taille similaire)[3].
+Les Botiids sont généralement assez petits, avec des longueurs maximales comprise entre 6 et 30 cm selon les espèces, bien que Leptobotia elongata atteigne 50 cm (Chromobotia macracanthus atteint de manière assez exceptionnelle une taille similaire).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Maurice Kottelat 2012[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Maurice Kottelat 2012:
 Ambastaia Kottelat, 2012
 Botia J. E. Gray, 1831
 Chromobotia Kottelat, 2004
@@ -551,7 +565,9 @@
           <t>Poissons d'aquariums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beaucoup des espèces les plus colorées sont populaires auprès des aquariophiles d'eau douce, et ont donc une importance dans le commerce des animaux de compagnies. Les Botiidae souvent rencontré dans le commerce aquarium :
 Chromobotia macracanthus
